--- a/src/test/resources/com/sirion/xls/Common Listing Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Common Listing Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -721,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -737,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -769,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -785,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -833,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -849,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -865,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -897,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -913,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4"/>
     </row>

--- a/src/test/resources/com/sirion/xls/Common Listing Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Common Listing Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
